--- a/target/classes/demowebshop-testdata.xlsx
+++ b/target/classes/demowebshop-testdata.xlsx
@@ -5,21 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\obsqura\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\IdeaProjects\demowebshop\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806B9CDE-9C0C-4CF7-BDCD-70A4E29460CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE23348-7637-46F3-AC04-F07F335D3533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5E67DE40-8444-48B9-B775-4A7368A8CB32}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="1" r:id="rId1"/>
+    <sheet name="RegisterPage" sheetId="2" r:id="rId2"/>
+    <sheet name="LoginPage" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -32,19 +31,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Demo Web Shop</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Rahul</t>
+  </si>
+  <si>
+    <t>Krishna</t>
+  </si>
+  <si>
+    <t>rahul123@gmail.com</t>
+  </si>
+  <si>
+    <t>Rahul@123</t>
+  </si>
+  <si>
+    <t>navyanaveenam@gmail.com</t>
+  </si>
+  <si>
+    <t>Rithul@12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -67,13 +95,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -385,10 +416,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ABC0DFB-37B7-43B7-B2D2-E1AE98C220BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -400,4 +431,69 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D1" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="E1" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="F1" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="B1" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/target/classes/demowebshop-testdata.xlsx
+++ b/target/classes/demowebshop-testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\IdeaProjects\demowebshop\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE23348-7637-46F3-AC04-F07F335D3533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C240DF8-8E2F-4A29-B37B-E37094C863DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="1" r:id="rId1"/>
@@ -33,28 +33,28 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Rahul</t>
+  </si>
+  <si>
+    <t>Krishna</t>
+  </si>
+  <si>
+    <t>rahul123@gmail.com</t>
+  </si>
+  <si>
+    <t>Rahul@123</t>
+  </si>
+  <si>
+    <t>navyanaveenam@gmail.com</t>
+  </si>
+  <si>
+    <t>Rithul@12</t>
+  </si>
+  <si>
     <t>Demo Web Shop</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Rahul</t>
-  </si>
-  <si>
-    <t>Krishna</t>
-  </si>
-  <si>
-    <t>rahul123@gmail.com</t>
-  </si>
-  <si>
-    <t>Rahul@123</t>
-  </si>
-  <si>
-    <t>navyanaveenam@gmail.com</t>
-  </si>
-  <si>
-    <t>Rithul@12</t>
   </si>
 </sst>
 </file>
@@ -419,13 +419,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -443,22 +443,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -475,7 +475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
@@ -483,10 +483,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
